--- a/Backend/Model Metrics/classification_report_rfc_Part2_vaso.xlsx
+++ b/Backend/Model Metrics/classification_report_rfc_Part2_vaso.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8392857142857143</v>
+        <v>0.949438202247191</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.8644501278772379</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8545454545454546</v>
+        <v>0.9049531459170014</v>
       </c>
       <c r="E2" t="n">
-        <v>216</v>
+        <v>782</v>
       </c>
     </row>
     <row r="3">
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8653846153846154</v>
+        <v>0.6293706293706294</v>
       </c>
       <c r="C3" t="n">
         <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8490566037735849</v>
+        <v>0.7171314741035857</v>
       </c>
       <c r="E3" t="n">
         <v>216</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8523351648351649</v>
+        <v>0.7894044158089102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8488917306052857</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8518010291595197</v>
+        <v>0.8110423100102935</v>
       </c>
       <c r="E5" t="n">
-        <v>432</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8523351648351649</v>
+        <v>0.8801650602218029</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8518518518518519</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8518010291595198</v>
+        <v>0.8643023632399495</v>
       </c>
       <c r="E6" t="n">
-        <v>432</v>
+        <v>998</v>
       </c>
     </row>
   </sheetData>
